--- a/medicine/Enfance/Centre_hospitalier_pour_enfants_de_l’est_de_l’Ontario/Centre_hospitalier_pour_enfants_de_l’est_de_l’Ontario.xlsx
+++ b/medicine/Enfance/Centre_hospitalier_pour_enfants_de_l’est_de_l’Ontario/Centre_hospitalier_pour_enfants_de_l’est_de_l’Ontario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_pour_enfants_de_l%E2%80%99est_de_l%E2%80%99Ontario</t>
+          <t>Centre_hospitalier_pour_enfants_de_l’est_de_l’Ontario</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier pour enfants de l’est de l’Ontario est le principal hôpital pour enfants de l'Est de l'Ontario, spécialisé dans les soins pédiatriques d'Ottawa. Il est rattaché à l'hôpital d'Ottawa et affilié à l'université d'Ottawa.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_pour_enfants_de_l%E2%80%99est_de_l%E2%80%99Ontario</t>
+          <t>Centre_hospitalier_pour_enfants_de_l’est_de_l’Ontario</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre hospitalier pour enfants de l’est de l’Ontario fut inauguré et ouvert au jeune public le 17 mai 1974. Il fut fondé par le gouvernement provincial de l'Ontario et diverses donations publiques.
 1977 - Clinique dentaire
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_pour_enfants_de_l%E2%80%99est_de_l%E2%80%99Ontario</t>
+          <t>Centre_hospitalier_pour_enfants_de_l’est_de_l’Ontario</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pour l'exercice 2009-2010, le centre hospitalier pour enfants a reçu
 6 368 admissions au CHEO
